--- a/go-idoc2txt/idoctypes/zmap_seqjit03.xlsx
+++ b/go-idoc2txt/idoctypes/zmap_seqjit03.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\c_portab\01_rb\_rbprogs\go-idoc2txt\idoctypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5457F840-E92E-4B6C-9C4F-F050249C79CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="seqjit03_tomap" sheetId="1" r:id="rId1"/>
@@ -612,7 +613,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1411,7 +1412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1422,25 +1423,25 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="16" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>178</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2019,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="18" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="20" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="21" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="24" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="26" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="27" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="28" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="29" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="30" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="31" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="32" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="33" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="34" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="35" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3075,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -3690,7 +3691,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="55" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="56" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="58" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="60" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="61" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="63" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -4218,7 +4219,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="64" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="65" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="66" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="74" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="75" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="76" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -4790,7 +4791,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="77" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -4834,7 +4835,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="78" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="79" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="80" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="81" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="82" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="83" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="84" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="85" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -5186,7 +5187,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -5362,7 +5363,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="91" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -5494,7 +5495,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -5538,7 +5539,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="94" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="95" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="98" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="99" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="100" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="101" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -5890,7 +5891,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="102" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="103" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="104" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -6022,7 +6023,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="105" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -6066,7 +6067,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="106" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -6110,7 +6111,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="107" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="108" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="109" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="110" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="111" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -6330,7 +6331,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="112" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -6374,7 +6375,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="113" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="114" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -6462,7 +6463,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="115" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="116" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -6550,7 +6551,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="117" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="118" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="119" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -6682,7 +6683,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="120" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -6726,7 +6727,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="121" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -6770,7 +6771,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="122" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="123" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -6858,7 +6859,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -6902,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -7034,7 +7035,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -7078,7 +7079,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>0</v>
       </c>
@@ -7122,7 +7123,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="130" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -7210,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
@@ -7298,7 +7299,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -7342,7 +7343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="135" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -7386,7 +7387,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -7430,7 +7431,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="139" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -7562,7 +7563,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="140" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
@@ -7606,7 +7607,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="141" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="142" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -7694,7 +7695,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="144" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -7782,7 +7783,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="145" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="146" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
@@ -7870,7 +7871,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="147" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
@@ -7914,7 +7915,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="148" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -7958,7 +7959,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="149" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -8002,7 +8003,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="150" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="151" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="152" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
@@ -8134,7 +8135,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="153" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="154" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>0</v>
       </c>
@@ -8222,7 +8223,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="155" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
@@ -8266,7 +8267,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="156" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>0</v>
       </c>
@@ -8310,7 +8311,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="157" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>0</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="158" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
@@ -8398,7 +8399,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="159" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="160" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
@@ -8486,7 +8487,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="161" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>0</v>
       </c>
@@ -8530,7 +8531,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -8574,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
@@ -8618,7 +8619,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="164" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="165" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>0</v>
       </c>
@@ -8706,7 +8707,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="166" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="167" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
@@ -8794,7 +8795,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="168" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>0</v>
       </c>
@@ -8838,7 +8839,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="169" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
@@ -8882,7 +8883,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="170" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
@@ -8926,7 +8927,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="171" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>0</v>
       </c>
@@ -8970,7 +8971,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="172" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>0</v>
       </c>
@@ -9014,7 +9015,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="173" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>0</v>
       </c>
@@ -9058,7 +9059,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="174" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>0</v>
       </c>
@@ -9102,7 +9103,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="175" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>0</v>
       </c>
@@ -9146,7 +9147,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="176" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
@@ -9190,7 +9191,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="177" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>0</v>
       </c>
@@ -9234,7 +9235,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="178" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>0</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="179" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
@@ -9322,7 +9323,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="180" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>0</v>
       </c>
@@ -9367,7 +9368,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
